--- a/宏观经济/eta/欧元-美元_月度数据.xlsx
+++ b/宏观经济/eta/欧元-美元_月度数据.xlsx
@@ -458,7 +458,7 @@
       </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="n">
-        <v>1.161328</v>
+        <v>1.163783</v>
       </c>
     </row>
     <row r="3">
@@ -468,10 +468,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.163833</v>
+        <v>1.1638</v>
       </c>
       <c r="C3" t="n">
-        <v>1.132785</v>
+        <v>1.128186</v>
       </c>
     </row>
     <row r="4">
@@ -484,7 +484,7 @@
         <v>1.173223</v>
       </c>
       <c r="C4" t="n">
-        <v>1.134211</v>
+        <v>1.134276</v>
       </c>
     </row>
     <row r="5">
@@ -497,7 +497,7 @@
         <v>1.163143</v>
       </c>
       <c r="C5" t="n">
-        <v>1.128961</v>
+        <v>1.129024</v>
       </c>
     </row>
     <row r="6">
@@ -510,7 +510,7 @@
         <v>1.167687</v>
       </c>
       <c r="C6" t="n">
-        <v>1.131678</v>
+        <v>1.131742</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         <v>1.151619</v>
       </c>
       <c r="C7" t="n">
-        <v>1.127371</v>
+        <v>1.127434</v>
       </c>
     </row>
     <row r="8">
@@ -536,7 +536,7 @@
         <v>1.127805</v>
       </c>
       <c r="C8" t="n">
-        <v>1.110602</v>
+        <v>1.110657</v>
       </c>
     </row>
     <row r="9">
@@ -549,7 +549,7 @@
         <v>1.121395</v>
       </c>
       <c r="C9" t="n">
-        <v>1.102893</v>
+        <v>1.102946</v>
       </c>
     </row>
     <row r="10">
@@ -562,7 +562,7 @@
         <v>1.080681</v>
       </c>
       <c r="C10" t="n">
-        <v>1.070677</v>
+        <v>1.070716</v>
       </c>
     </row>
     <row r="11">
@@ -575,7 +575,7 @@
         <v>1.04125</v>
       </c>
       <c r="C11" t="n">
-        <v>1.039262</v>
+        <v>1.039288</v>
       </c>
     </row>
     <row r="12">
@@ -588,7 +588,7 @@
         <v>1.035373</v>
       </c>
       <c r="C12" t="n">
-        <v>1.026661</v>
+        <v>1.026683</v>
       </c>
     </row>
     <row r="13">
@@ -601,7 +601,7 @@
         <v>1.047875</v>
       </c>
       <c r="C13" t="n">
-        <v>1.040867</v>
+        <v>1.040894</v>
       </c>
     </row>
     <row r="14">
@@ -614,7 +614,7 @@
         <v>1.063014</v>
       </c>
       <c r="C14" t="n">
-        <v>1.053692</v>
+        <v>1.053725</v>
       </c>
     </row>
     <row r="15">
@@ -627,7 +627,7 @@
         <v>1.090435</v>
       </c>
       <c r="C15" t="n">
-        <v>1.079087</v>
+        <v>1.07913</v>
       </c>
     </row>
     <row r="16">
@@ -640,7 +640,7 @@
         <v>1.1106</v>
       </c>
       <c r="C16" t="n">
-        <v>1.100742</v>
+        <v>1.100794</v>
       </c>
     </row>
     <row r="17">
@@ -653,7 +653,7 @@
         <v>1.101218</v>
       </c>
       <c r="C17" t="n">
-        <v>1.089505</v>
+        <v>1.089552</v>
       </c>
     </row>
     <row r="18">
@@ -666,7 +666,7 @@
         <v>1.084409</v>
       </c>
       <c r="C18" t="n">
-        <v>1.065856</v>
+        <v>1.065894</v>
       </c>
     </row>
     <row r="19">
@@ -679,7 +679,7 @@
         <v>1.0759</v>
       </c>
       <c r="C19" t="n">
-        <v>1.060301</v>
+        <v>1.060336</v>
       </c>
     </row>
     <row r="20">
@@ -692,7 +692,7 @@
         <v>1.081223</v>
       </c>
       <c r="C20" t="n">
-        <v>1.062908</v>
+        <v>1.062944</v>
       </c>
     </row>
     <row r="21">
@@ -705,7 +705,7 @@
         <v>1.072776</v>
       </c>
       <c r="C21" t="n">
-        <v>1.05772</v>
+        <v>1.057754</v>
       </c>
     </row>
     <row r="22">
@@ -718,7 +718,7 @@
         <v>1.08722</v>
       </c>
       <c r="C22" t="n">
-        <v>1.075718</v>
+        <v>1.07576</v>
       </c>
     </row>
     <row r="23">
@@ -731,7 +731,7 @@
         <v>1.079471</v>
       </c>
       <c r="C23" t="n">
-        <v>1.070983</v>
+        <v>1.071022</v>
       </c>
     </row>
     <row r="24">
@@ -744,7 +744,7 @@
         <v>1.090514</v>
       </c>
       <c r="C24" t="n">
-        <v>1.082325</v>
+        <v>1.082369</v>
       </c>
     </row>
     <row r="25">
